--- a/biology/Neurosciences/Marthe_Vogt/Marthe_Vogt.xlsx
+++ b/biology/Neurosciences/Marthe_Vogt/Marthe_Vogt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marthe Louise Vogt (8 septembre 1903 – 9 septembre 2003) est une neuroscientifique et pharmacologue allemande[1]. Elle est connue pour ses recherches sur le rôle des neurotransmetteurs dans le cerveau[2],[3], en particulier les sympathines comme l'adrénaline[4]. Elle est élue membre de la Royal Society en 1952 et membre de l'académie américaine des arts et des sciences en 1977[5]. Elle reçoit la médaille royale en 1981 pour ses recherches sur la biochimie et la pharmacologie des synapses qui sont fondamentales à la neuropharmacologie moderne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marthe Louise Vogt (8 septembre 1903 – 9 septembre 2003) est une neuroscientifique et pharmacologue allemande. Elle est connue pour ses recherches sur le rôle des neurotransmetteurs dans le cerveau en particulier les sympathines comme l'adrénaline. Elle est élue membre de la Royal Society en 1952 et membre de l'académie américaine des arts et des sciences en 1977. Elle reçoit la médaille royale en 1981 pour ses recherches sur la biochimie et la pharmacologie des synapses qui sont fondamentales à la neuropharmacologie moderne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) H.H. Dale, Wilhelm Feldberg et M. Vogt, « 'Release of Acetylcholine at Voluntary Motor Nerve Endings' », Journal of Physiology, vol. 86, no 4,‎ 1936, p. 1936
 (en) W. Feldberg et M. Vogt, « Acetylcholine synthesis in different regions of the central nervous system », Journal of Physiology, vol. 107, no 3,‎ 1948, p. 372–381 (DOI 10.1113/jphysiol.1948.sp004282, lire en ligne)
